--- a/biology/Médecine/Muscle_ischio-jambier/Muscle_ischio-jambier.xlsx
+++ b/biology/Médecine/Muscle_ischio-jambier/Muscle_ischio-jambier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un muscle ischio-jambier appartient à un groupe musculaire de la cuisse permettant l'extension de la hanche et la flexion du genou. Ce groupe rassemble des muscles polyarticulaires qui vont de la hanche jusqu’à l’arrière du tibia et de la fibula (péroné). Ces muscles correspondent aux muscles de la loge postérieure de la cuisse.
 Ce groupe se compose de trois muscles :
@@ -516,7 +528,9 @@
           <t>Insertions des ischio-jambiers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Muscle biceps fémoral (ou biceps crural ou long biceps) (biceps femoralis) : il est composé par deux chefs. Le chef long (caput longum) naît par un tendon sur la face postérieure de la tubérosité ischiatique. Le chef court, quant à lui, naît par des fibres musculaires sur la moitié distale de la lèvre latérale de la ligne âpre. Les deux chefs se rejoignent pour se fixer sur la tête de la fibula (anciennement péroné) et par des expansions sur le condyle latéral du tibia. Il a un tendon commun avec le court biceps.
 Muscle semi-tendineux (anciennement appelé muscle demi-tendineux) (semi-tendinosus) : c'est le plus interne au niveau du creux poplité. Il naît sur la tubérosité ischiatique pour se terminer sur la face supérieure et médiale du tibia. Il appartient au groupe de la patte d'oie (gracile, semi-tendineux et sartorius).
@@ -552,7 +566,9 @@
           <t>Innervation motrice</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Tous ces muscles sont innervés par le nerf ischiatique (ou grand sciatique). Ses racines métamériques sont L4-L5 (tronc lombo-sacral) et S1-S2-S3.
 </t>
@@ -583,7 +599,9 @@
           <t>Fonctions de ces muscles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les muscles ischio-jambiers sont composés de plusieurs parties qui ont pour action principale d'entrainer le genou en flexion et le fémur en extension si l'os coxal est un point fixe.
 Muscle biceps fémoral : il permet la flexion de la jambe et la rotation latérale de la jambe fléchie. Le chef long participe à l'extension de la hanche.
@@ -618,10 +636,12 @@
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce groupe musculaire est l'un des plus touchés par les accidents musculaires des sportifs, dont le plus grave est la déchirure musculaire.
-Une étude scandinave a par exemple montré que les ischio-jambiers sont impliqués, dans cette région, dans 11 % des blessures dans la course à pied, ce taux montant à 16 à 27 % dans la pratique du football australien[1]. C'est plus du quart (26 %) des accidents déclarés par les footballeurs professionnels[2] et il s'agit de récidive dans 1⁄4 des cas, celle-ci apparaissant souvent (1⁄3 des cas) dans les 15 jours qui suivent la reprise de l'activité sportive[3].
+Une étude scandinave a par exemple montré que les ischio-jambiers sont impliqués, dans cette région, dans 11 % des blessures dans la course à pied, ce taux montant à 16 à 27 % dans la pratique du football australien. C'est plus du quart (26 %) des accidents déclarés par les footballeurs professionnels et il s'agit de récidive dans 1⁄4 des cas, celle-ci apparaissant souvent (1⁄3 des cas) dans les 15 jours qui suivent la reprise de l'activité sportive.
 </t>
         </is>
       </c>
@@ -650,9 +670,11 @@
           <t>Culture physique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les ischio-jambiers interviennent comme muscles moteurs ou synergiques dans l'exercice du soulevé de terre[4]. Ils sont également moteurs dans le mouvement de flexion sur jambes (squat)[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ischio-jambiers interviennent comme muscles moteurs ou synergiques dans l'exercice du soulevé de terre. Ils sont également moteurs dans le mouvement de flexion sur jambes (squat).
 </t>
         </is>
       </c>
